--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/OPTINET/25.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/OPTINET/25.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\OPTINET\20240105\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\OPTINET\20240110\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05743928-635D-4943-AFDD-560D44C73D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A6A33-1DAC-4B68-898B-DA7675084842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="891">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4741,49 +4741,46 @@
     <t>Questo test non è applicabile perché la sezione relativa al quesito diagnostico viene inserita nel CDA solo se è stata compilata la relatova sezione lato applicativo, quindi il text è sempre presente nel CDA nel caso sia stato compilato il quesito diagnostico.</t>
   </si>
   <si>
-    <t>2024-01-05T14:01:46.297Z</t>
-  </si>
-  <si>
-    <t>1974e6948fe9a24d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.ebae9a88909f61f991012f86982e9a738125317efb91b62840d538110b9277ec.211e378c66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-05T15:33:17.028Z</t>
-  </si>
-  <si>
-    <t>ae9704e47b1b871f</t>
-  </si>
-  <si>
-    <t>05/012024</t>
-  </si>
-  <si>
-    <t>4f4de891d91599ed</t>
-  </si>
-  <si>
-    <t>2024-01-05T15:41:05.793Z</t>
-  </si>
-  <si>
-    <t>1803fb17aa1b3e45</t>
-  </si>
-  <si>
-    <t>2024-01-05T15:46:04.038Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.ebae9a88909f61f991012f86982e9a738125317efb91b62840d538110b9277ec.5e0f28cfd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5291b7f1a5c4fd21</t>
-  </si>
-  <si>
-    <t>2024-01-05T15:50:47.431Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.ebae9a88909f61f991012f86982e9a738125317efb91b62840d538110b9277ec.be0395e4c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>subject_application_id: OPTINET</t>
+  </si>
+  <si>
+    <t>2024-01-10T15:56:38.785Z</t>
+  </si>
+  <si>
+    <t>8149775e69787dd5</t>
+  </si>
+  <si>
+    <t>5c7427a3765582a3</t>
+  </si>
+  <si>
+    <t>2024-01-10T15:59:18.414Z</t>
+  </si>
+  <si>
+    <t>7fe9ff09c4c7b3a1</t>
+  </si>
+  <si>
+    <t>c4b8d5bc3d2b93ed</t>
+  </si>
+  <si>
+    <t>2024-01-10T16:03:34.526Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.ebae9a88909f61f991012f86982e9a738125317efb91b62840d538110b9277ec.13014c4268^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.ebae9a88909f61f991012f86982e9a738125317efb91b62840d538110b9277ec.2ccb7ecff6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-10T16:01:28.923Z</t>
+  </si>
+  <si>
+    <t>18906ca05744a5a4</t>
+  </si>
+  <si>
+    <t>2024-01-10T16:07:35.509Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.ebae9a88909f61f991012f86982e9a738125317efb91b62840d538110b9277ec.01c5d5ac35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5125,7 +5122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5248,9 +5245,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7714,10 +7708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7785,7 +7779,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="48" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="D3" s="40"/>
       <c r="F3" s="12"/>
@@ -8969,17 +8963,17 @@
       <c r="D39" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="22" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>867</v>
@@ -9261,17 +9255,17 @@
       <c r="D47" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>867</v>
@@ -13437,20 +13431,20 @@
       <c r="D167" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E167" s="49" t="s">
+      <c r="E167" s="22" t="s">
         <v>363</v>
       </c>
       <c r="F167" s="23">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="G167" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="I167" s="24" t="s">
         <v>886</v>
-      </c>
-      <c r="H167" s="24" t="s">
-        <v>885</v>
-      </c>
-      <c r="I167" s="24" t="s">
-        <v>887</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13491,20 +13485,20 @@
       <c r="D168" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E168" s="49" t="s">
+      <c r="E168" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="F168" s="23" t="s">
-        <v>882</v>
+      <c r="F168" s="23">
+        <v>45301</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -20789,16 +20783,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="23">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
